--- a/doc/5.xlsx
+++ b/doc/5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ИВТ-б-о-22-1\Алгоритмизация\5\Alg_lab_5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7FAB19-AF8E-43F8-99C5-A441276A0EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="3105" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,17 +163,15 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -194,7 +191,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Лист1!$B$1:$F$1</c:f>
               <c:numCache>
@@ -217,8 +228,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$B$2:$F$2</c:f>
               <c:numCache>
@@ -241,101 +252,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E186-48D0-8E53-8F83DC82D95D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$11:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.30373E-09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.60736E-09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.911E-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.32146E-08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.65183E-08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E186-48D0-8E53-8F83DC82D95D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,21 +268,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1751531312"/>
         <c:axId val="2023842192"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
@@ -381,7 +298,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -410,8 +327,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -440,7 +357,7 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
+                </c:yVal>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -448,11 +365,11 @@
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1751531312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -566,11 +483,8 @@
         </c:txPr>
         <c:crossAx val="2023842192"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="2023842192"/>
         <c:scaling>
@@ -623,6 +537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -685,7 +600,7 @@
         </c:txPr>
         <c:crossAx val="1751531312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -697,6 +612,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -704,7 +620,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1585,11 +1500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
